--- a/数据整理/stocks/A股/深证主板/002746-仙坛股份.xlsx
+++ b/数据整理/stocks/A股/深证主板/002746-仙坛股份.xlsx
@@ -7,7 +7,8 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -621,7 +622,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -632,17 +633,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -652,13 +673,179 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>008928</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>泰达宏利中证主要消费红利指数A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>5.92</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.93</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2700</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>008929</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>泰达宏利中证主要消费红利指数C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.93</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1414</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>501089</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>方正富邦中证主要消费红利指数增强（LOF）</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.62</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0072</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>3</v>
       </c>
       <c r="D2" t="n">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>3</v>
+      </c>
+      <c r="D3" t="n">
         <v>0.28</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002746-仙坛股份.xlsx
+++ b/数据整理/stocks/A股/深证主板/002746-仙坛股份.xlsx
@@ -8,7 +8,8 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -792,7 +793,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -803,17 +804,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -823,14 +844,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>3</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.42</v>
+          <t>008928</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>泰达宏利中证主要消费红利指数A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.28</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2034</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -839,13 +882,157 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>008929</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>泰达宏利中证主要消费红利指数C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.28</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0715</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>501089</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>方正富邦中证主要消费红利指数增强（LOF）</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.72</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0066</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.28</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>3</v>
       </c>
       <c r="D3" t="n">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>3</v>
+      </c>
+      <c r="D4" t="n">
         <v>0.28</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002746-仙坛股份.xlsx
+++ b/数据整理/stocks/A股/深证主板/002746-仙坛股份.xlsx
@@ -6,10 +6,10 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -453,7 +453,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -464,37 +464,17 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>基金代码</t>
+          <t>日期</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>基金名称</t>
+          <t>持有数量(只)</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
           <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -504,36 +484,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>008928</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>泰达宏利中证主要消费红利指数A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>4.79</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>93.69</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>4.25</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.2036</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>7</v>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.28</v>
       </c>
     </row>
     <row r="3">
@@ -542,36 +500,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>008929</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>泰达宏利中证主要消费红利指数C</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>1.61</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>93.69</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>4.25</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0684</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>7</v>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>3</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.42</v>
       </c>
     </row>
     <row r="4">
@@ -580,36 +516,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>501089</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>方正富邦中证主要消费红利指数增强（LOF）</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0.18</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>95.12</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>4.46</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0080</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>7</v>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>3</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.28</v>
       </c>
     </row>
   </sheetData>
@@ -684,22 +598,22 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>5.92</t>
+          <t>5.15</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>93.93</t>
+          <t>93.28</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.56</t>
+          <t>3.95</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.2700</t>
+          <t>0.2034</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -722,22 +636,22 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>3.10</t>
+          <t>1.81</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>93.93</t>
+          <t>93.28</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.56</t>
+          <t>3.95</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.1414</t>
+          <t>0.0715</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -760,26 +674,26 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.16</t>
+          <t>0.17</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>94.62</t>
+          <t>93.72</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>4.47</t>
+          <t>3.86</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0072</t>
+          <t>0.0066</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -854,22 +768,22 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>5.15</t>
+          <t>5.92</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>93.28</t>
+          <t>93.93</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.95</t>
+          <t>4.56</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.2034</t>
+          <t>0.2700</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -892,22 +806,22 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1.81</t>
+          <t>3.10</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>93.28</t>
+          <t>93.93</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.95</t>
+          <t>4.56</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0715</t>
+          <t>0.1414</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -930,26 +844,26 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.17</t>
+          <t>0.16</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>93.72</t>
+          <t>94.62</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>3.86</t>
+          <t>4.47</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0066</t>
+          <t>0.0072</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -963,7 +877,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -974,17 +888,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -994,14 +928,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>3</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.28</v>
+          <t>008928</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>泰达宏利中证主要消费红利指数A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.69</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2036</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -1010,14 +966,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>3</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.42</v>
+          <t>008929</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>泰达宏利中证主要消费红利指数C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.69</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0684</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -1026,14 +1004,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>3</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.28</v>
+          <t>501089</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>方正富邦中证主要消费红利指数增强（LOF）</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>95.12</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0080</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/深证主板/002746-仙坛股份.xlsx
+++ b/数据整理/stocks/A股/深证主板/002746-仙坛股份.xlsx
@@ -7,9 +7,10 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -453,7 +454,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,14 +485,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>3</v>
       </c>
       <c r="D2" t="n">
-        <v>0.28</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="3">
@@ -500,14 +501,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>3</v>
       </c>
       <c r="D3" t="n">
-        <v>0.42</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="4">
@@ -516,13 +517,29 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>3</v>
       </c>
       <c r="D4" t="n">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="n">
         <v>0.28</v>
       </c>
     </row>
@@ -598,26 +615,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>5.15</t>
+          <t>3.45</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>93.28</t>
+          <t>93.07</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.95</t>
+          <t>3.86</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.2034</t>
+          <t>0.1332</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -636,26 +653,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1.81</t>
+          <t>1.69</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>93.28</t>
+          <t>93.07</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.95</t>
+          <t>3.86</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0715</t>
+          <t>0.0652</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -669,27 +686,27 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>方正富邦中证主要消费红利指数增强（LOF）</t>
+          <t>方正富邦消费红利指数增强（LOF）</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.17</t>
+          <t>0.31</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>93.72</t>
+          <t>45.73</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>3.86</t>
+          <t>1.87</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0066</t>
+          <t>0.0058</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -768,22 +785,22 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>5.92</t>
+          <t>5.15</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>93.93</t>
+          <t>93.28</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.56</t>
+          <t>3.95</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.2700</t>
+          <t>0.2034</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -806,22 +823,22 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>3.10</t>
+          <t>1.81</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>93.93</t>
+          <t>93.28</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.56</t>
+          <t>3.95</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.1414</t>
+          <t>0.0715</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -844,26 +861,26 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.16</t>
+          <t>0.17</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>94.62</t>
+          <t>93.72</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>4.47</t>
+          <t>3.86</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0072</t>
+          <t>0.0066</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -938,6 +955,176 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>5.92</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.93</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2700</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>008929</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>泰达宏利中证主要消费红利指数C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.93</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1414</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>501089</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>方正富邦中证主要消费红利指数增强（LOF）</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.62</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0072</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>008928</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>泰达宏利中证主要消费红利指数A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
           <t>4.79</t>
         </is>
       </c>

--- a/数据整理/stocks/A股/深证主板/002746-仙坛股份.xlsx
+++ b/数据整理/stocks/A股/深证主板/002746-仙坛股份.xlsx
@@ -7,10 +7,11 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -454,7 +455,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,14 +486,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
-        <v>0.2</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="3">
@@ -501,14 +502,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>3</v>
       </c>
       <c r="D3" t="n">
-        <v>0.28</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="4">
@@ -517,14 +518,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>3</v>
       </c>
       <c r="D4" t="n">
-        <v>0.42</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="5">
@@ -533,13 +534,29 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>3</v>
       </c>
       <c r="D5" t="n">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>3</v>
+      </c>
+      <c r="D6" t="n">
         <v>0.28</v>
       </c>
     </row>
@@ -554,7 +571,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -605,36 +622,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>008928</t>
+          <t>005000</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>泰达宏利中证主要消费红利指数A</t>
+          <t>泰康泉林量化价值精选混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>3.45</t>
+          <t>0.31</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>93.07</t>
+          <t>89.21</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.86</t>
+          <t>2.05</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.1332</t>
+          <t>0.0064</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -643,74 +660,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>008929</t>
+          <t>005111</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>泰达宏利中证主要消费红利指数C</t>
+          <t>泰康泉林量化价值精选混合C</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1.69</t>
+          <t>0.14</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>93.07</t>
+          <t>89.21</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.86</t>
+          <t>2.05</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0652</t>
+          <t>0.0029</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>501089</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>方正富邦消费红利指数增强（LOF）</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0.31</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>45.73</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>1.87</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0058</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -785,26 +764,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>5.15</t>
+          <t>3.45</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>93.28</t>
+          <t>93.07</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.95</t>
+          <t>3.86</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.2034</t>
+          <t>0.1332</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -823,26 +802,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1.81</t>
+          <t>1.69</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>93.28</t>
+          <t>93.07</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.95</t>
+          <t>3.86</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0715</t>
+          <t>0.0652</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -856,27 +835,27 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>方正富邦中证主要消费红利指数增强（LOF）</t>
+          <t>方正富邦消费红利指数增强（LOF）</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.17</t>
+          <t>0.31</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>93.72</t>
+          <t>45.73</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>3.86</t>
+          <t>1.87</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0066</t>
+          <t>0.0058</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -955,22 +934,22 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>5.92</t>
+          <t>5.15</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>93.93</t>
+          <t>93.28</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.56</t>
+          <t>3.95</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.2700</t>
+          <t>0.2034</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -993,22 +972,22 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>3.10</t>
+          <t>1.81</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>93.93</t>
+          <t>93.28</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.56</t>
+          <t>3.95</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.1414</t>
+          <t>0.0715</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -1031,26 +1010,26 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.16</t>
+          <t>0.17</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>94.62</t>
+          <t>93.72</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>4.47</t>
+          <t>3.86</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0072</t>
+          <t>0.0066</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -1125,6 +1104,176 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>5.92</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.93</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2700</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>008929</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>泰达宏利中证主要消费红利指数C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.93</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1414</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>501089</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>方正富邦中证主要消费红利指数增强（LOF）</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.62</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0072</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>008928</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>泰达宏利中证主要消费红利指数A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
           <t>4.79</t>
         </is>
       </c>
